--- a/pred_ohlcv/54_21/2019-10-24 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 TRX ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>1637950.05668716</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2573726.655549929</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2455252.674249929</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2681360.605049929</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>297476.9774303408</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1841443.984897531</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1951892.44017142</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2115093.35726337</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2017456.49186337</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1811664.27446337</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2177060.08336337</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2143343.47986337</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2143353.47986337</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2127013.35046337</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2110023.03166337</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1903169.21216337</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2091467.28196337</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2091477.28196337</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2091352.46946337</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2092733.54996337</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 TRX ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>1637950.05668716</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2573726.655549929</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2455252.674249929</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>297476.9774303408</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2286413.798425441</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1985232.950225441</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1984703.851425441</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2268202.579725441</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2268202.579725441</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2209402.579725441</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2224281.205825441</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2221571.355825441</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1841443.984897531</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1751456.734597531</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1749809.814597531</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>2057101.88159108</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1951892.44017142</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2115093.35726337</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2017456.49186337</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1811664.27446337</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2177060.08336337</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2143343.47986337</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2143353.47986337</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2127013.35046337</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2110023.03166337</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1903169.21216337</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2091467.28196337</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2091477.28196337</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2091352.46946337</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2092733.54996337</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
